--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -732,7 +732,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -740,23 +740,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -764,9 +765,9 @@
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="81.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="69.2265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="35.5390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2018,7 +2019,7 @@
         <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>95</v>
@@ -2027,7 +2028,7 @@
         <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -2458,7 +2459,7 @@
         <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>140</v>
@@ -2467,7 +2468,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -6813,273 +6814,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1FB206-4B47-4C7E-AF85-F384DD935E5F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CB8DA9-C275-4506-8BAF-6230F3330B43}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB581A2-69AE-400D-AC21-DFF8615C1944}"/>
 </file>
--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="231">
   <si>
     <t>Sezione</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.segretarioComunale</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
   </si>
   <si>
     <t>Impedimento - Unito civilmente 1</t>
@@ -757,7 +763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1748,7 +1754,7 @@
         <v>81</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -5793,99 +5799,99 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C252" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F252" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5893,19 +5899,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -5913,19 +5919,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -5933,10 +5939,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>11</v>
@@ -5945,27 +5951,27 @@
         <v>193</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" s="2" t="s">
+      <c r="E260" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>17</v>
@@ -5973,79 +5979,79 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6053,19 +6059,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6073,19 +6079,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6093,30 +6099,30 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
@@ -6125,461 +6131,461 @@
         <v>199</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F290" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>70</v>
@@ -6588,18 +6594,18 @@
         <v>206</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>70</v>
@@ -6608,18 +6614,18 @@
         <v>208</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>70</v>
@@ -6628,32 +6634,32 @@
         <v>210</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>213</v>
@@ -6662,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>214</v>
@@ -6673,7 +6679,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>215</v>
@@ -6693,7 +6699,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>217</v>
@@ -6713,7 +6719,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>219</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>221</v>
@@ -6753,7 +6759,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>223</v>
@@ -6762,7 +6768,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>224</v>
@@ -6773,7 +6779,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>225</v>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>227</v>
@@ -6802,12 +6808,32 @@
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F302" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="237">
   <si>
     <t>Sezione</t>
   </si>
@@ -705,6 +705,24 @@
   </si>
   <si>
     <t>soggettoImpedimentoCivile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -763,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6837,6 +6855,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -6843,7 +6843,7 @@
         <v>229</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>70</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="227">
   <si>
     <t>Sezione</t>
   </si>
@@ -509,18 +509,6 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Impedimento - Difetto di età</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneDifettoEta</t>
-  </si>
-  <si>
-    <t>Impedimento - Parentela</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneParentela</t>
-  </si>
-  <si>
     <t>Legge regime patrimoniale</t>
   </si>
   <si>
@@ -530,6 +518,21 @@
     <t>legge</t>
   </si>
   <si>
+    <t>Impedimento Generico</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
+  </si>
+  <si>
+    <t>Motivazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico</t>
+  </si>
+  <si>
+    <t>motivazione</t>
+  </si>
+  <si>
     <t>Regime patrimoniale - Atto Notarile</t>
   </si>
   <si>
@@ -557,27 +560,6 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.nominaAssistenteLegale</t>
-  </si>
-  <si>
     <t>Segretario comunale</t>
   </si>
   <si>
@@ -596,15 +578,9 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>Motivazione</t>
-  </si>
-  <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>
   </si>
   <si>
-    <t>motivazione</t>
-  </si>
-  <si>
     <t>Impedimento - Unito civilmente 2</t>
   </si>
   <si>
@@ -677,16 +653,10 @@
     <t>estintaOpposizione</t>
   </si>
   <si>
-    <t>Difetto di età</t>
-  </si>
-  <si>
-    <t>difettoEta</t>
-  </si>
-  <si>
-    <t>Parentela (ovvero: affinità; ovvero: affiliazione)</t>
-  </si>
-  <si>
-    <t>impedimentoParentela</t>
+    <t>Impedimento generico</t>
+  </si>
+  <si>
+    <t>impedimentoGenerico</t>
   </si>
   <si>
     <t>Scelta del regime patrimoniale</t>
@@ -781,16 +751,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="81.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
   </cols>
@@ -4652,7 +4622,7 @@
         <v>152</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
@@ -4672,7 +4642,7 @@
         <v>154</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -4692,7 +4662,7 @@
         <v>156</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -4780,7 +4750,7 @@
         <v>165</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>11</v>
@@ -4789,87 +4759,87 @@
         <v>166</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4877,19 +4847,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4897,19 +4867,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4917,19 +4887,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4937,39 +4907,39 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4977,19 +4947,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -4997,19 +4967,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5017,19 +4987,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5037,59 +5007,59 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5097,39 +5067,39 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5137,39 +5107,39 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5177,19 +5147,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5197,19 +5167,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5217,19 +5187,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5237,59 +5207,59 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5297,39 +5267,39 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5337,19 +5307,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5357,19 +5327,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5377,19 +5347,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5397,119 +5367,119 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5517,39 +5487,39 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5557,39 +5527,39 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5597,39 +5567,39 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5637,39 +5607,39 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5677,39 +5647,39 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5717,39 +5687,39 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5757,82 +5727,82 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="253">
@@ -5840,7 +5810,7 @@
         <v>192</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
@@ -5849,27 +5819,27 @@
         <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5877,39 +5847,39 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5917,39 +5887,39 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -5957,19 +5927,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -5977,59 +5947,59 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6037,39 +6007,39 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6077,19 +6047,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6097,19 +6067,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6117,781 +6087,21 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F305" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="241">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -443,24 +449,36 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+  </si>
+  <si>
     <t>Testimone 2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+  </si>
+  <si>
     <t>Testimone 3</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+  </si>
+  <si>
     <t>Testimone 4</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+  </si>
+  <si>
     <t>Opposizione - Sentenza di rigetto</t>
   </si>
   <si>
@@ -473,6 +491,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -518,12 +539,18 @@
     <t>legge</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+  </si>
+  <si>
     <t>Impedimento Generico</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+  </si>
+  <si>
     <t>Motivazione</t>
   </si>
   <si>
@@ -542,6 +569,9 @@
     <t>nomeNotaio</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+  </si>
+  <si>
     <t>Cognome Notaio</t>
   </si>
   <si>
@@ -578,6 +608,9 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2 }</t>
+  </si>
+  <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>
   </si>
   <si>
@@ -587,6 +620,9 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposa.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,1}</t>
+  </si>
+  <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposa</t>
   </si>
   <si>
@@ -599,6 +635,9 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
+  </si>
+  <si>
     <t>195,196</t>
   </si>
   <si>
@@ -687,6 +726,9 @@
   </si>
   <si>
     <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -751,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -763,6 +805,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -784,565 +827,652 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1364,4745 +1494,5459 @@
       <c r="F30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -608,7 +608,7 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2 }</t>
+    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2}</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="242">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,106 +32,109 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 2</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Rigetto del Tribunale all'opposizione</t>
+  </si>
+  <si>
+    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121.1</t>
+  </si>
+  <si>
+    <t>73-bis</t>
+  </si>
+  <si>
+    <t>73-ter</t>
+  </si>
+  <si>
+    <t>73-quater</t>
+  </si>
+  <si>
+    <t>73-sexies</t>
+  </si>
+  <si>
+    <t>73-septies</t>
+  </si>
+  <si>
+    <t>73-octies</t>
+  </si>
+  <si>
+    <t>73-nonies</t>
+  </si>
+  <si>
+    <t>73-decies</t>
+  </si>
+  <si>
+    <t>73-undecies</t>
+  </si>
+  <si>
+    <t>73-duodecies</t>
+  </si>
+  <si>
+    <t>73-terdecies</t>
+  </si>
+  <si>
+    <t>73-quaterdecies</t>
+  </si>
+  <si>
+    <t>73-quinquiesdecies</t>
+  </si>
+  <si>
+    <t>73-sexiesdecies</t>
+  </si>
+  <si>
+    <t>73-septiesdecies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 2</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Rigetto del Tribunale all'opposizione</t>
-  </si>
-  <si>
-    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121.1</t>
-  </si>
-  <si>
-    <t>73-bis</t>
-  </si>
-  <si>
-    <t>73-ter</t>
-  </si>
-  <si>
-    <t>73-quater</t>
-  </si>
-  <si>
-    <t>73-sexies</t>
-  </si>
-  <si>
-    <t>73-septies</t>
-  </si>
-  <si>
-    <t>73-octies</t>
-  </si>
-  <si>
-    <t>73-nonies</t>
-  </si>
-  <si>
-    <t>73-decies</t>
-  </si>
-  <si>
-    <t>73-undecies</t>
-  </si>
-  <si>
-    <t>73-duodecies</t>
-  </si>
-  <si>
-    <t>73-terdecies</t>
-  </si>
-  <si>
-    <t>73-quaterdecies</t>
-  </si>
-  <si>
-    <t>73-quinquiesdecies</t>
-  </si>
-  <si>
-    <t>73-sexiesdecies</t>
-  </si>
-  <si>
-    <t>73-septiesdecies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -1495,5458 +1498,5458 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F239" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F247" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F250" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -452,7 +452,7 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -461,7 +461,7 @@
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -470,7 +470,7 @@
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -479,7 +479,7 @@
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Opposizione - Sentenza di rigetto</t>
@@ -494,7 +494,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.rigettoOpposizione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -542,7 +542,7 @@
     <t>legge</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3</t>
   </si>
   <si>
     <t>Impedimento Generico</t>
@@ -551,7 +551,7 @@
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+    <t>evento.datiEventoUnioneCivile.impedimentoGenerico,=,0</t>
   </si>
   <si>
     <t>Motivazione</t>
@@ -572,7 +572,7 @@
     <t>nomeNotaio</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false</t>
   </si>
   <si>
     <t>Cognome Notaio</t>
@@ -611,7 +611,7 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2}</t>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposo</t>
@@ -623,7 +623,7 @@
     <t>evento.datiEventoUnioneCivile.impedimentoSposa.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,1}</t>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoCivile,=,1</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.impedimentoSposa</t>
@@ -638,7 +638,7 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>195,196</t>
@@ -731,7 +731,7 @@
     <t>tipoAnnotazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -808,7 +808,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="244">
   <si>
     <t>Sezione</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -796,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6952,6 +6958,29 @@
         <v>239</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="244">
   <si>
     <t>Sezione</t>
   </si>
@@ -260,19 +260,145 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare l’unione civile</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>cognomeOfficiante</t>
+    <t>evento.datiEventoUnioneCivile.officianteEvento</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>nomeOfficiante</t>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Certificato di richiesta di costituzione 1</t>
@@ -311,133 +437,7 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,121.1,73-undecies,73-decies,73-duodecies</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -802,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1903,7 +1903,7 @@
         <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1912,7 @@
         <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1926,19 @@
         <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>45</v>
@@ -1949,16 +1949,16 @@
         <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1969,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2015,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2061,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2084,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>45</v>
@@ -2130,19 +2130,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>45</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>45</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>45</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>45</v>
@@ -2268,19 +2268,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>45</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>45</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2452,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2521,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>45</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>45</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>45</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2728,19 +2728,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2797,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>45</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>45</v>
@@ -3027,19 +3027,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3050,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>45</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>45</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3142,19 +3142,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3168,19 @@
         <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3191,7 +3191,7 @@
         <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3200,7 +3200,7 @@
         <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3211,462 +3211,462 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
@@ -3674,19 +3674,19 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>146</v>
@@ -3697,7 +3697,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3717,462 +3717,462 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
@@ -4180,19 +4180,19 @@
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>149</v>
@@ -4203,7 +4203,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4212,7 +4212,7 @@
         <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4223,462 +4223,462 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169">
@@ -4686,19 +4686,19 @@
         <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>152</v>
@@ -4709,7 +4709,7 @@
         <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4718,7 +4718,7 @@
         <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4729,462 +4729,462 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
@@ -5192,19 +5192,19 @@
         <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>155</v>
@@ -5215,7 +5215,7 @@
         <v>153</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5224,7 +5224,7 @@
         <v>154</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5235,1359 +5235,1359 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="252">
@@ -6595,19 +6595,19 @@
         <v>205</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>208</v>
@@ -6618,7 +6618,7 @@
         <v>205</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6627,7 +6627,7 @@
         <v>206</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
@@ -6638,346 +6638,806 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B286" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" s="2" t="s">
+      <c r="C288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E288" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
         <v>239</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="246">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -802,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2366,7 +2372,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>85</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2521,16 +2527,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>136</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2567,22 +2573,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
@@ -2590,22 +2596,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
@@ -2613,22 +2619,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2636,16 +2642,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>136</v>
@@ -2662,7 +2668,7 @@
         <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2671,10 +2677,10 @@
         <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>45</v>
@@ -2682,22 +2688,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2705,22 +2711,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2728,22 +2734,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2820,22 +2826,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>45</v>
@@ -2843,22 +2849,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2866,22 +2872,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
@@ -2889,22 +2895,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>45</v>
@@ -2912,22 +2918,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3004,22 +3010,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>45</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
@@ -3073,22 +3079,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>45</v>
@@ -3096,22 +3102,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>45</v>
@@ -3119,22 +3125,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3165,22 +3171,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3211,22 +3217,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3257,22 +3263,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>45</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3326,22 +3332,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>45</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>18</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3418,22 +3424,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3441,22 +3447,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3464,19 +3470,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3510,22 +3516,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3533,19 +3539,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3556,22 +3562,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>45</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>18</v>
@@ -3602,19 +3608,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3625,22 +3631,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>45</v>
@@ -3648,22 +3654,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3674,22 +3680,22 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126">
@@ -3697,7 +3703,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3706,13 +3712,13 @@
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
@@ -3720,2675 +3726,2675 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="E171" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="E172" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E217" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E222" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="F227" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E228" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C242" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
@@ -6397,159 +6403,159 @@
         <v>200</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
@@ -6558,21 +6564,21 @@
         <v>202</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
@@ -6581,159 +6587,159 @@
         <v>204</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -6742,550 +6748,550 @@
         <v>206</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>209</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G275" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -7294,7 +7300,7 @@
         <v>73</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7305,22 +7311,22 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>45</v>
@@ -7328,19 +7334,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7351,22 +7357,22 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>45</v>
@@ -7374,71 +7380,255 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="C293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="2" t="s">
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G288" s="2" t="s">
+      <c r="B296" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>239</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -4005,7 +4005,7 @@
         <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>147</v>
@@ -4028,7 +4028,7 @@
         <v>109</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>147</v>
@@ -4037,7 +4037,7 @@
         <v>110</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>148</v>
@@ -4534,7 +4534,7 @@
         <v>107</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>150</v>
@@ -4557,7 +4557,7 @@
         <v>109</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>150</v>
@@ -4566,7 +4566,7 @@
         <v>110</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>151</v>
@@ -5063,7 +5063,7 @@
         <v>107</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>153</v>
@@ -5086,7 +5086,7 @@
         <v>109</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>153</v>
@@ -5095,7 +5095,7 @@
         <v>110</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>154</v>
@@ -5592,7 +5592,7 @@
         <v>107</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>156</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>156</v>
@@ -5624,7 +5624,7 @@
         <v>110</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>157</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="247">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -644,10 +644,13 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -820,7 +823,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7268,7 +7271,7 @@
         <v>207</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -7288,10 +7291,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -7300,7 +7303,7 @@
         <v>73</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7311,10 +7314,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
@@ -7323,7 +7326,7 @@
         <v>73</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>29</v>
@@ -7334,10 +7337,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -7346,7 +7349,7 @@
         <v>73</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7357,10 +7360,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
@@ -7369,7 +7372,7 @@
         <v>73</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>29</v>
@@ -7380,10 +7383,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -7392,7 +7395,7 @@
         <v>43</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7403,10 +7406,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7415,7 +7418,7 @@
         <v>73</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7426,10 +7429,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7438,7 +7441,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7449,10 +7452,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -7461,7 +7464,7 @@
         <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7472,10 +7475,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7484,7 +7487,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7495,10 +7498,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -7507,7 +7510,7 @@
         <v>176</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
@@ -7518,10 +7521,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7530,7 +7533,7 @@
         <v>176</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7541,10 +7544,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7553,7 +7556,7 @@
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7564,71 +7567,71 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="246">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 1</t>
+    <t>Certificato della richiesta di costituzione 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 2</t>
+    <t>Certificato della richiesta di costituzione 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -648,9 +648,6 @@
   </si>
   <si>
     <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -7271,7 +7268,7 @@
         <v>207</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -7291,10 +7288,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -7303,7 +7300,7 @@
         <v>73</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7314,10 +7311,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
@@ -7326,7 +7323,7 @@
         <v>73</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>29</v>
@@ -7337,10 +7334,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -7349,7 +7346,7 @@
         <v>73</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7360,10 +7357,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
@@ -7372,7 +7369,7 @@
         <v>73</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>29</v>
@@ -7383,10 +7380,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -7395,7 +7392,7 @@
         <v>43</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7406,10 +7403,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7418,7 +7415,7 @@
         <v>73</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7429,10 +7426,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7441,7 +7438,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7452,10 +7449,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -7464,7 +7461,7 @@
         <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7475,10 +7472,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7487,7 +7484,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7498,10 +7495,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -7510,7 +7507,7 @@
         <v>176</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
@@ -7521,10 +7518,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7533,7 +7530,7 @@
         <v>176</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7544,10 +7541,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7556,7 +7553,7 @@
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7567,71 +7564,71 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="2" t="s">
+      <c r="E294" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="247">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -7268,7 +7271,7 @@
         <v>207</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -7288,10 +7291,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -7300,7 +7303,7 @@
         <v>73</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7311,10 +7314,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
@@ -7323,7 +7326,7 @@
         <v>73</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>29</v>
@@ -7334,10 +7337,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -7346,7 +7349,7 @@
         <v>73</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7357,10 +7360,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
@@ -7369,7 +7372,7 @@
         <v>73</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>29</v>
@@ -7380,10 +7383,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -7392,7 +7395,7 @@
         <v>43</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7403,10 +7406,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7415,7 +7418,7 @@
         <v>73</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7426,10 +7429,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
@@ -7438,7 +7441,7 @@
         <v>73</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7449,10 +7452,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -7461,7 +7464,7 @@
         <v>73</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7472,10 +7475,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7484,7 +7487,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7495,10 +7498,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -7507,7 +7510,7 @@
         <v>176</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
@@ -7518,10 +7521,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7530,7 +7533,7 @@
         <v>176</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7541,10 +7544,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7553,7 +7556,7 @@
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7564,71 +7567,71 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="255">
   <si>
     <t>Sezione</t>
   </si>
@@ -444,6 +444,30 @@
   </si>
   <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,121.1,73-undecies,73-decies,73-duodecies</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -811,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3220,22 +3244,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3243,22 +3267,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3266,22 +3290,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>45</v>
@@ -3289,22 +3313,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>45</v>
@@ -3312,22 +3336,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3335,19 +3359,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3358,22 +3382,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -3381,22 +3405,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3404,19 +3428,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3427,22 +3451,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3450,22 +3474,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3473,22 +3497,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>45</v>
@@ -3496,19 +3520,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3519,22 +3543,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3542,22 +3566,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>45</v>
@@ -3565,19 +3589,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3588,22 +3612,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3611,19 +3635,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3634,22 +3658,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>45</v>
@@ -3657,22 +3681,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3680,22 +3704,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3703,19 +3727,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3726,22 +3750,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>45</v>
@@ -3749,3736 +3773,3736 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E232" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E246" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E283" s="2" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
@@ -7487,7 +7511,7 @@
         <v>73</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7498,22 +7522,22 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>45</v>
@@ -7521,19 +7545,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7544,22 +7568,22 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>45</v>
@@ -7567,71 +7591,255 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="C298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E296" s="2" t="s">
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>242</v>
+      <c r="B302" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -2767,7 +2767,7 @@
         <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>142</v>
@@ -2776,7 +2776,7 @@
         <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -3388,7 +3388,7 @@
         <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>153</v>
@@ -3397,7 +3397,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -4009,7 +4009,7 @@
         <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>155</v>
@@ -4018,7 +4018,7 @@
         <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>156</v>
@@ -4538,7 +4538,7 @@
         <v>89</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>158</v>
@@ -4547,7 +4547,7 @@
         <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>159</v>
@@ -5067,7 +5067,7 @@
         <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>161</v>
@@ -5076,7 +5076,7 @@
         <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>162</v>
@@ -5596,7 +5596,7 @@
         <v>89</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>164</v>
@@ -5605,7 +5605,7 @@
         <v>90</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>165</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="257">
   <si>
     <t>Sezione</t>
   </si>
@@ -281,6 +281,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -335,13 +341,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -835,7 +841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2422,7 +2428,7 @@
         <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>85</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2577,16 +2583,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>138</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2623,22 +2629,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
@@ -2646,22 +2652,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2669,22 +2675,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>45</v>
@@ -2692,16 +2698,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>138</v>
@@ -2718,7 +2724,7 @@
         <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2727,10 +2733,10 @@
         <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2738,22 +2744,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2790,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2813,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2830,19 +2836,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2859,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2876,22 +2882,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2899,19 +2905,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2922,19 +2928,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
@@ -2945,22 +2951,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -2968,22 +2974,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -2991,22 +2997,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -3014,19 +3020,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3060,19 +3066,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3083,22 +3089,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3106,19 +3112,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -3152,22 +3158,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3175,22 +3181,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>45</v>
@@ -3198,22 +3204,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3244,19 +3250,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3267,22 +3273,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3290,19 +3296,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3313,19 +3319,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>18</v>
@@ -3336,22 +3342,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3359,22 +3365,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>45</v>
@@ -3382,22 +3388,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -3405,19 +3411,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3428,19 +3434,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3451,19 +3457,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3480,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3497,22 +3503,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>45</v>
@@ -3520,19 +3526,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3543,22 +3549,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3566,19 +3572,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>18</v>
@@ -3589,19 +3595,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3612,22 +3618,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3635,22 +3641,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>45</v>
@@ -3658,19 +3664,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3681,19 +3687,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3704,22 +3710,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3727,19 +3733,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3750,22 +3756,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>45</v>
@@ -3773,19 +3779,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
@@ -3796,19 +3802,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3819,22 +3825,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>45</v>
@@ -3842,22 +3848,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>45</v>
@@ -3865,19 +3871,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3888,22 +3894,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>45</v>
@@ -3911,19 +3917,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3934,22 +3940,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>45</v>
@@ -3960,7 +3966,7 @@
         <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
@@ -3969,13 +3975,13 @@
         <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
@@ -3983,22 +3989,22 @@
         <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138">
@@ -4006,2767 +4012,2767 @@
         <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="E208" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E232" s="2" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E233" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E234" s="2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E237" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="F242" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E243" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -6775,159 +6781,159 @@
         <v>210</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
@@ -6936,21 +6942,21 @@
         <v>212</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
@@ -6959,159 +6965,159 @@
         <v>214</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
@@ -7120,573 +7126,573 @@
         <v>216</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>219</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F291" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G291" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F294" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G294" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -7695,7 +7701,7 @@
         <v>73</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
@@ -7706,22 +7712,22 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>45</v>
@@ -7729,19 +7735,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
@@ -7752,22 +7758,22 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>45</v>
@@ -7775,71 +7781,255 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="C309" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="2" t="s">
+      <c r="C311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E304" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G304" s="2" t="s">
+      <c r="B312" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>250</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="256">
   <si>
     <t>Sezione</t>
   </si>
@@ -632,13 +632,16 @@
     <t>Segretario comunale</t>
   </si>
   <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
+  </si>
+  <si>
     <t>evento.datiEventoUnioneCivile.segretarioComunale</t>
   </si>
   <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>ruoloSegretario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Impedimento - Unito civilmente 1</t>
@@ -675,12 +678,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -841,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6703,19 +6700,19 @@
         <v>205</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>45</v>
@@ -6726,19 +6723,19 @@
         <v>205</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>45</v>
@@ -6749,16 +6746,16 @@
         <v>205</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6769,1267 +6766,1773 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E295" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="C332" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E334" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>252</v>
+      <c r="F334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="258">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -838,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:H343"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2448,7 +2454,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>85</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2603,16 +2609,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>140</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2649,22 +2655,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2672,22 +2678,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>45</v>
@@ -2695,22 +2701,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>45</v>
@@ -2718,16 +2724,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>140</v>
@@ -2744,7 +2750,7 @@
         <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2753,10 +2759,10 @@
         <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2764,22 +2770,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2925,22 +2931,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>45</v>
@@ -2948,22 +2954,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -2971,22 +2977,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
@@ -3017,22 +3023,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>45</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3086,22 +3092,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3109,19 +3115,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -3155,19 +3161,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>18</v>
@@ -3201,22 +3207,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3224,22 +3230,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>45</v>
@@ -3247,22 +3253,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3270,19 +3276,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3316,22 +3322,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>45</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>18</v>
@@ -3385,22 +3391,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -3408,22 +3414,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3431,22 +3437,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3454,19 +3460,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3483,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3552,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3569,22 +3575,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>45</v>
@@ -3592,19 +3598,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3621,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>18</v>
@@ -3638,22 +3644,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>45</v>
@@ -3661,22 +3667,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>45</v>
@@ -3684,22 +3690,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3707,19 +3713,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3736,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3753,22 +3759,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>45</v>
@@ -3776,22 +3782,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>45</v>
@@ -3799,22 +3805,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3822,22 +3828,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>45</v>
@@ -3845,19 +3851,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
@@ -3868,19 +3874,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3891,22 +3897,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>45</v>
@@ -3914,22 +3920,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>45</v>
@@ -3937,19 +3943,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3960,22 +3966,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>45</v>
@@ -3983,19 +3989,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -4006,22 +4012,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>45</v>
@@ -4032,7 +4038,7 @@
         <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -4041,13 +4047,13 @@
         <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140">
@@ -4055,22 +4061,22 @@
         <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141">
@@ -4078,7 +4084,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -4087,2790 +4093,2790 @@
         <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E236" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E237" s="2" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E238" s="2" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E239" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E241" s="2" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E244" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="F249" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6881,22 +6887,22 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>45</v>
@@ -6904,19 +6910,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6927,19 +6933,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6950,19 +6956,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6973,19 +6979,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6996,19 +7002,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -7019,19 +7025,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -7042,19 +7048,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -7065,19 +7071,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
@@ -7088,19 +7094,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -7111,19 +7117,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
@@ -7134,19 +7140,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
@@ -7157,19 +7163,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
@@ -7180,19 +7186,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
@@ -7203,19 +7209,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
@@ -7226,19 +7232,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -7249,19 +7255,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
@@ -7272,539 +7278,539 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E280" s="2" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E281" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E282" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E283" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E284" s="2" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E285" s="2" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E286" s="2" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E287" s="2" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G292" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G293" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G296" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
@@ -7813,605 +7819,605 @@
         <v>219</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F320" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="G320" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F322" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G322" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F324" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G324" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F325" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G325" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
@@ -8422,22 +8428,22 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>45</v>
@@ -8445,10 +8451,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -8457,7 +8463,7 @@
         <v>73</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
@@ -8468,71 +8474,278 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="C340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D334" s="2" t="s">
+      <c r="C342" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E334" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G334" s="2" t="s">
+      <c r="B343" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -71,7 +71,7 @@
     <t>121.1</t>
   </si>
   <si>
-    <t>73-bis</t>
+    <t>73-bis.1</t>
   </si>
   <si>
     <t>73-ter</t>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="285">
   <si>
     <t>Sezione</t>
   </si>
@@ -570,6 +570,87 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Legge regime patrimoniale</t>
@@ -844,7 +925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H349"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6660,867 +6741,867 @@
         <v>186</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7531,22 +7612,22 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>42</v>
@@ -7554,19 +7635,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7577,1313 +7658,1865 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E346" s="2" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G347" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G348" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B349" s="2" t="s">
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E349" s="2" t="s">
+      <c r="C361" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E361" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F349" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>253</v>
+      <c r="F361" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -8860,7 +8860,7 @@
         <v>106</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>247</v>
@@ -8883,7 +8883,7 @@
         <v>108</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>247</v>
@@ -8892,7 +8892,7 @@
         <v>109</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>249</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="287">
   <si>
     <t>Sezione</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9519,6 +9525,29 @@
         <v>280</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="291">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -931,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H392"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2518,7 +2530,7 @@
         <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>82</v>
@@ -2541,7 +2553,7 @@
         <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>82</v>
@@ -2581,19 +2593,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2604,16 +2616,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>137</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2719,22 +2731,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>42</v>
@@ -2742,19 +2754,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>19</v>
@@ -2788,22 +2800,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>42</v>
@@ -2811,22 +2823,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
@@ -2834,22 +2846,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
@@ -2857,22 +2869,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>42</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2972,22 +2984,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>42</v>
@@ -2995,22 +3007,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>42</v>
@@ -3018,19 +3030,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -3041,22 +3053,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>42</v>
@@ -3064,22 +3076,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>42</v>
@@ -3087,22 +3099,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>42</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3145,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>18</v>
@@ -3156,19 +3168,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
@@ -3179,19 +3191,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3202,22 +3214,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>42</v>
@@ -3225,22 +3237,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>42</v>
@@ -3248,19 +3260,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
@@ -3271,19 +3283,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3306,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
@@ -3317,22 +3329,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>42</v>
@@ -3340,22 +3352,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>42</v>
@@ -3363,19 +3375,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3386,22 +3398,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>42</v>
@@ -3409,22 +3421,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>42</v>
@@ -3432,22 +3444,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>42</v>
@@ -3455,19 +3467,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3478,22 +3490,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>42</v>
@@ -3501,22 +3513,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>42</v>
@@ -3524,22 +3536,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>42</v>
@@ -3547,19 +3559,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3570,22 +3582,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>42</v>
@@ -3593,22 +3605,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>42</v>
@@ -3616,19 +3628,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3639,19 +3651,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3662,19 +3674,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3685,22 +3697,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>42</v>
@@ -3708,22 +3720,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>42</v>
@@ -3731,22 +3743,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>42</v>
@@ -3754,22 +3766,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>42</v>
@@ -3777,19 +3789,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3800,19 +3812,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3823,19 +3835,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>18</v>
@@ -3846,22 +3858,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>42</v>
@@ -3869,22 +3881,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>42</v>
@@ -3892,19 +3904,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>18</v>
@@ -3915,19 +3927,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3938,22 +3950,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>42</v>
@@ -3961,22 +3973,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>42</v>
@@ -3984,19 +3996,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
@@ -4007,22 +4019,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>42</v>
@@ -4030,22 +4042,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>42</v>
@@ -4053,19 +4065,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -4076,22 +4088,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>42</v>
@@ -4099,19 +4111,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -4122,19 +4134,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
@@ -4145,22 +4157,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>42</v>
@@ -4168,22 +4180,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>42</v>
@@ -4191,2905 +4203,2905 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E246" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E267" s="2" t="s">
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>195</v>
@@ -7098,7 +7110,7 @@
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>196</v>
@@ -7107,12 +7119,12 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>197</v>
@@ -7121,7 +7133,7 @@
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>198</v>
@@ -7130,12 +7142,12 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>199</v>
@@ -7144,113 +7156,113 @@
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>207</v>
@@ -7259,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>208</v>
@@ -7268,12 +7280,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>209</v>
@@ -7282,7 +7294,7 @@
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>210</v>
@@ -7291,645 +7303,645 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E303" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
@@ -7940,22 +7952,22 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>42</v>
@@ -7963,19 +7975,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
@@ -7986,19 +7998,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
@@ -8009,19 +8021,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
@@ -8032,19 +8044,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
@@ -8055,19 +8067,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
@@ -8078,19 +8090,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
@@ -8101,19 +8113,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
@@ -8124,19 +8136,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
@@ -8147,19 +8159,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
@@ -8170,19 +8182,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
@@ -8193,19 +8205,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
@@ -8216,554 +8228,554 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="341">
@@ -8771,7 +8783,7 @@
         <v>246</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>12</v>
@@ -8780,13 +8792,13 @@
         <v>247</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="F341" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="342">
@@ -8794,7 +8806,7 @@
         <v>246</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>12</v>
@@ -8803,13 +8815,13 @@
         <v>247</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="343">
@@ -8817,7 +8829,7 @@
         <v>246</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>12</v>
@@ -8826,13 +8838,13 @@
         <v>247</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="F343" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="344">
@@ -8840,7 +8852,7 @@
         <v>246</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>12</v>
@@ -8849,13 +8861,13 @@
         <v>247</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="F344" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="345">
@@ -8863,7 +8875,7 @@
         <v>246</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>12</v>
@@ -8872,13 +8884,13 @@
         <v>247</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="346">
@@ -8886,7 +8898,7 @@
         <v>246</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>12</v>
@@ -8895,13 +8907,13 @@
         <v>247</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="F346" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="G346" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="347">
@@ -8909,7 +8921,7 @@
         <v>246</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>12</v>
@@ -8918,13 +8930,13 @@
         <v>247</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="F347" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="348">
@@ -8932,252 +8944,252 @@
         <v>246</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="F348" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G348" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="359">
@@ -9185,22 +9197,22 @@
         <v>250</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E359" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F359" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F359" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G359" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="360">
@@ -9208,22 +9220,22 @@
         <v>250</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="361">
@@ -9231,22 +9243,22 @@
         <v>250</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="362">
@@ -9254,22 +9266,22 @@
         <v>250</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="363">
@@ -9277,22 +9289,22 @@
         <v>250</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="364">
@@ -9300,22 +9312,22 @@
         <v>250</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="365">
@@ -9323,22 +9335,22 @@
         <v>250</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="366">
@@ -9346,22 +9358,22 @@
         <v>250</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="367">
@@ -9369,22 +9381,22 @@
         <v>250</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="368">
@@ -9392,22 +9404,22 @@
         <v>250</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="369">
@@ -9415,22 +9427,22 @@
         <v>250</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="370">
@@ -9438,114 +9450,528 @@
         <v>250</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="C387" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E374" s="2" t="s">
+      <c r="C390" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E390" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F374" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G374" s="2" t="s">
+      <c r="F390" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
         <v>280</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
